--- a/medicine/Enfance/Joséphine_Getting/Joséphine_Getting.xlsx
+++ b/medicine/Enfance/Joséphine_Getting/Joséphine_Getting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9phine_Getting</t>
+          <t>Joséphine_Getting</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joséphine Getting, née Rothschild le 15 septembre 1877 à Paris et morte assassinée le 5 septembre 1943 à Auschwitz, est une juive française, assistante sociale et créatrice du service social à l’hôpital. Durant la Seconde Guerre mondiale, elle aide à sauver des enfants Juifs. Elle est déportée et assassinée à Auschwitz.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9phine_Getting</t>
+          <t>Joséphine_Getting</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,85 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joséphine Rothschild[1],[2] est née le 15 septembre 1877 à Paris[3]. Elle n'est pas apparentée à la famille des banquiers Rothschild[1].
-Première assistante sociale hospitalière
-Le 1er mars 1914, Joséphine Getting devient la première assistante sociale hospitalière, à l'hôpital des Enfants malades à Paris[1].
-Mort
-La dernière adresse de Joséphine Getting est au 3 avenue Bugeaud, dans le 16e arrondissement de Paris. Âgée de 66 ans, elle est déportée par le convoi no 59, en date du 2 septembre 1943 du camp de Drancy vers Auschwitz, où elle est assassinée à son arrivée, le 5 septembre 1943.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joséphine Rothschild, est née le 15 septembre 1877 à Paris. Elle n'est pas apparentée à la famille des banquiers Rothschild.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Joséphine_Getting</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jos%C3%A9phine_Getting</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Première assistante sociale hospitalière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er mars 1914, Joséphine Getting devient la première assistante sociale hospitalière, à l'hôpital des Enfants malades à Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joséphine_Getting</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jos%C3%A9phine_Getting</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dernière adresse de Joséphine Getting est au 3 avenue Bugeaud, dans le 16e arrondissement de Paris. Âgée de 66 ans, elle est déportée par le convoi no 59, en date du 2 septembre 1943 du camp de Drancy vers Auschwitz, où elle est assassinée à son arrivée, le 5 septembre 1943.
 </t>
         </is>
       </c>
